--- a/cbrunner/Parameters/Parameters_Substitution.xlsx
+++ b/cbrunner/Parameters/Parameters_Substitution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98973193-8C67-4598-B860-6156F136BB2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AD3BF2-733D-48C5-BA7F-F8B0EF59D3B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -47,15 +47,6 @@
     <t>Sigma</t>
   </si>
   <si>
-    <t>PowerGenFracDisplacingRenewables</t>
-  </si>
-  <si>
-    <t>PowerGenFracDisplacingCoal</t>
-  </si>
-  <si>
-    <t>PowerGenFracDisplacingDiesel</t>
-  </si>
-  <si>
     <t>PelletFracDisplacingCoal</t>
   </si>
   <si>
@@ -65,33 +56,12 @@
     <t>PelletFracDisplacingDiesel</t>
   </si>
   <si>
-    <t>PowerGenFracDisplacingNaturalGas</t>
-  </si>
-  <si>
-    <t>PowerGenFracDisplacingOil</t>
-  </si>
-  <si>
     <t>PelletFracDisplacingNaturalGas</t>
   </si>
   <si>
     <t>PelletFracDisplacingOil</t>
   </si>
   <si>
-    <t>FirewoodFracDisplacingRenewables</t>
-  </si>
-  <si>
-    <t>FirewoodFracDisplacingCoal</t>
-  </si>
-  <si>
-    <t>FirewoodFracDisplacingDiesel</t>
-  </si>
-  <si>
-    <t>FirewoodFracDisplacingNaturalGas</t>
-  </si>
-  <si>
-    <t>FirewoodFracDisplacingOil</t>
-  </si>
-  <si>
     <t>PanelDisplacementFactor</t>
   </si>
   <si>
@@ -99,6 +69,81 @@
   </si>
   <si>
     <t>Smyth et al. (2017)</t>
+  </si>
+  <si>
+    <t>FirewoodDomFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>FirewoodDomFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>FirewoodDomFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>FirewoodDomFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>FirewoodDomFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>FirewoodForFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>FirewoodForFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>FirewoodForFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>FirewoodForFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>FirewoodForFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>PowerFacilityDomFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>PowerFacilityDomFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>PowerFacilityDomFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>PowerFacilityDomFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>PowerFacilityDomFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>PowerFacilityForFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>PowerFacilityForFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>PowerFacilityForFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>PowerFacilityForFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>PowerFacilityForFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>PowerGridFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>PowerGridFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>PowerGridFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>PowerGridFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>PowerGridFracDisplacingOil</t>
   </si>
 </sst>
 </file>
@@ -176,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -193,12 +238,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -543,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,50 +609,50 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>0.54</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7">
         <v>0.45</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5">
         <v>0.7</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="9">
         <f>SUM(B4:B8)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -624,179 +663,331 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5">
         <v>0.1</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5">
         <v>0.1</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5">
         <v>0.1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="9">
         <f>SUM(B9:B13)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
+        <v>0.15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
+        <v>0.15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
+        <v>0.15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B14" s="5">
         <v>0.2</v>
       </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <f>SUM(B14:B18)</f>
+      <c r="C14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="9">
+        <f>SUM(B19:B23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(B19:B23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B23" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="C24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="9">
+        <f>SUM(B24:B28)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="9">
+        <f>SUM(B29:B33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="7">
         <v>0.4</v>
       </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="C32" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_Substitution.xlsx
+++ b/cbrunner/Parameters/Parameters_Substitution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AD3BF2-733D-48C5-BA7F-F8B0EF59D3B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7AE20E-F88D-4D9B-812F-14A0BC2DEB65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="84" windowWidth="13500" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -62,15 +62,6 @@
     <t>PelletFracDisplacingOil</t>
   </si>
   <si>
-    <t>PanelDisplacementFactor</t>
-  </si>
-  <si>
-    <t>LumberDisplacementFactor</t>
-  </si>
-  <si>
-    <t>Smyth et al. (2017)</t>
-  </si>
-  <si>
     <t>FirewoodDomFracDisplacingRenewables</t>
   </si>
   <si>
@@ -144,12 +135,171 @@
   </si>
   <si>
     <t>PowerGridFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>Smyth</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>SawnwoodFracDisplacingConcrete</t>
+  </si>
+  <si>
+    <t>SawnwoodFracDisplacingSteel</t>
+  </si>
+  <si>
+    <t>SawnwoodFracDisplacingAluminum</t>
+  </si>
+  <si>
+    <t>SawnwoodFracDisplacingPlastic</t>
+  </si>
+  <si>
+    <t>SawnwoodFracDisplacingTextile</t>
+  </si>
+  <si>
+    <t>PanelsFracDisplacingConcrete</t>
+  </si>
+  <si>
+    <t>PanelsFracDisplacingSteel</t>
+  </si>
+  <si>
+    <t>PanelsFracDisplacingAluminum</t>
+  </si>
+  <si>
+    <t>PanelsFracDisplacingPlastic</t>
+  </si>
+  <si>
+    <t>PanelsFracDisplacingTextile</t>
+  </si>
+  <si>
+    <t>ResidualsFracDisplacingConcrete</t>
+  </si>
+  <si>
+    <t>ResidualsFracDisplacingSteel</t>
+  </si>
+  <si>
+    <t>ResidualsFracDisplacingAluminum</t>
+  </si>
+  <si>
+    <t>ResidualsFracDisplacingPlastic</t>
+  </si>
+  <si>
+    <t>ResidualsFracDisplacingTextile</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_ConcreteForSawnwood</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_ConcreteForPanels</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_ConcreteForResiduals</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_SteelForSawnwood</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_SteelForPanels</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_SteelForResiduals</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_AluminumForSawnwood</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_AluminumForPanels</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_AluminumForResiduals</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_TextileForSawnwood</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_TextileForPanels</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_TextileForResiduals</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_PlasticForSawnwood</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_PlasticForPanels</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_PlasticForResiduals</t>
+  </si>
+  <si>
+    <t>SimpleSawnwoodDisplacementFactor</t>
+  </si>
+  <si>
+    <t>SimplePanelDisplacementFactor</t>
+  </si>
+  <si>
+    <t>FracConcreteEmissionsFromCoal</t>
+  </si>
+  <si>
+    <t>FracConcreteEmissionsFromCalcination</t>
+  </si>
+  <si>
+    <t>FracConcreteEmissionsFromOil</t>
+  </si>
+  <si>
+    <t>FracConcreteEmissionsFromGas</t>
+  </si>
+  <si>
+    <t>FracSteelEmissionsFromCoal</t>
+  </si>
+  <si>
+    <t>FracSteelEmissionsFromOil</t>
+  </si>
+  <si>
+    <t>FracSteelEmissionsFromGas</t>
+  </si>
+  <si>
+    <t>FracAluminumEmissionsFromCoal</t>
+  </si>
+  <si>
+    <t>FracAluminumEmissionsFromOil</t>
+  </si>
+  <si>
+    <t>FracAluminumEmissionsFromGas</t>
+  </si>
+  <si>
+    <t>FracPlasticEmissionsFromCoal</t>
+  </si>
+  <si>
+    <t>FracPlasticEmissionsFromOil</t>
+  </si>
+  <si>
+    <t>FracPlasticEmissionsFromGas</t>
+  </si>
+  <si>
+    <t>FracTextileEmissionsFromCoal</t>
+  </si>
+  <si>
+    <t>FracTextileEmissionsFromOil</t>
+  </si>
+  <si>
+    <t>FracTextileEmissionsFromGas</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -241,8 +391,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -582,412 +756,1056 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="13"/>
+    <col min="4" max="4" width="6.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <f>SUM(B2:B6)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <f>SUM(B7:B11)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <f>SUM(B12:B16)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="12">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="12">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="12">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="12">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="12">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="12">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="15">
+        <f>SUM(B34:B38)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="15">
+        <f>SUM(B39:B43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="15">
+        <f>SUM(B49:B53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="11">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="15">
+        <f>SUM(B49:B53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="11">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="15">
+        <f>SUM(B54:B58)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="11">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="11">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="11">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D59" s="15">
+        <f>SUM(B59:B63)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="12">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="17">
+        <f>SUM(B64:B67)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="C4" s="1">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="11">
         <v>0.5</v>
       </c>
-      <c r="D4" s="9">
-        <f>SUM(B4:B8)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="17">
+        <f>SUM(B68:B70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="12">
         <v>0.4</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="9">
-        <f>SUM(B9:B13)</f>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="18"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="17">
+        <f>SUM(B71:B73)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="18"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="18"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="12">
         <v>0.2</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="9">
-        <f>SUM(B19:B23)</f>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="17">
+        <f>SUM(B74:B76)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(B19:B23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="12">
         <v>0.4</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="9">
-        <f>SUM(B24:B28)</f>
-        <v>0.99900000000000011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="9">
-        <f>SUM(B29:B33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="7">
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="18"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="12">
         <v>0.4</v>
       </c>
-      <c r="C32" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="17">
+        <f>SUM(B77:B79)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="18"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="18"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="18"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_Substitution.xlsx
+++ b/cbrunner/Parameters/Parameters_Substitution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7AE20E-F88D-4D9B-812F-14A0BC2DEB65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82215F-2A3E-4AC1-8B7E-D4160EFB8911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="84" windowWidth="13500" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -158,21 +158,6 @@
     <t>SawnwoodFracDisplacingTextile</t>
   </si>
   <si>
-    <t>PanelsFracDisplacingConcrete</t>
-  </si>
-  <si>
-    <t>PanelsFracDisplacingSteel</t>
-  </si>
-  <si>
-    <t>PanelsFracDisplacingAluminum</t>
-  </si>
-  <si>
-    <t>PanelsFracDisplacingPlastic</t>
-  </si>
-  <si>
-    <t>PanelsFracDisplacingTextile</t>
-  </si>
-  <si>
     <t>ResidualsFracDisplacingConcrete</t>
   </si>
   <si>
@@ -191,45 +176,30 @@
     <t>DisplacementRatio_ConcreteForSawnwood</t>
   </si>
   <si>
-    <t>DisplacementRatio_ConcreteForPanels</t>
-  </si>
-  <si>
     <t>DisplacementRatio_ConcreteForResiduals</t>
   </si>
   <si>
     <t>DisplacementRatio_SteelForSawnwood</t>
   </si>
   <si>
-    <t>DisplacementRatio_SteelForPanels</t>
-  </si>
-  <si>
     <t>DisplacementRatio_SteelForResiduals</t>
   </si>
   <si>
     <t>DisplacementRatio_AluminumForSawnwood</t>
   </si>
   <si>
-    <t>DisplacementRatio_AluminumForPanels</t>
-  </si>
-  <si>
     <t>DisplacementRatio_AluminumForResiduals</t>
   </si>
   <si>
     <t>DisplacementRatio_TextileForSawnwood</t>
   </si>
   <si>
-    <t>DisplacementRatio_TextileForPanels</t>
-  </si>
-  <si>
     <t>DisplacementRatio_TextileForResiduals</t>
   </si>
   <si>
     <t>DisplacementRatio_PlasticForSawnwood</t>
   </si>
   <si>
-    <t>DisplacementRatio_PlasticForPanels</t>
-  </si>
-  <si>
     <t>DisplacementRatio_PlasticForResiduals</t>
   </si>
   <si>
@@ -291,6 +261,39 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>Currently set as zero (all residuals go to bioenergy), but requires future consideration for things like bioconcrete (must talk to IBIO folks)</t>
+  </si>
+  <si>
+    <t>PanelFracDisplacingConcrete</t>
+  </si>
+  <si>
+    <t>PanelFracDisplacingSteel</t>
+  </si>
+  <si>
+    <t>PanelFracDisplacingAluminum</t>
+  </si>
+  <si>
+    <t>PanelFracDisplacingPlastic</t>
+  </si>
+  <si>
+    <t>PanelFracDisplacingTextile</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_ConcreteForPanel</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_SteelForPanel</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_AluminumForPanel</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_PlasticForPanel</t>
+  </si>
+  <si>
+    <t>DisplacementRatio_TextileForPanel</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -388,10 +391,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -758,14 +757,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="8.88671875" style="11"/>
     <col min="4" max="4" width="6.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
@@ -774,33 +773,33 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>84</v>
+      <c r="D1" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>0.65</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <f>SUM(B2:B6)</f>
         <v>1</v>
       </c>
@@ -811,7 +810,7 @@
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>0.3</v>
       </c>
       <c r="C3" s="1">
@@ -824,7 +823,7 @@
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C4" s="1">
@@ -837,7 +836,7 @@
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C5" s="1">
@@ -850,7 +849,7 @@
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -861,15 +860,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="12">
+        <v>77</v>
+      </c>
+      <c r="B7" s="10">
         <v>0.65</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <f>SUM(B7:B11)</f>
         <v>1</v>
       </c>
@@ -878,9 +877,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="12">
+        <v>78</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.3</v>
       </c>
       <c r="C8" s="1">
@@ -891,9 +890,9 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="12">
+        <v>79</v>
+      </c>
+      <c r="B9" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9" s="1">
@@ -904,9 +903,9 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="12">
+        <v>80</v>
+      </c>
+      <c r="B10" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C10" s="1">
@@ -917,9 +916,9 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="12">
+        <v>81</v>
+      </c>
+      <c r="B11" s="10">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -930,81 +929,96 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="11">
+        <v>41</v>
+      </c>
+      <c r="B12" s="9">
         <v>0.5</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <f>SUM(B12:B16)</f>
         <v>1</v>
       </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="11">
+        <v>42</v>
+      </c>
+      <c r="B13" s="9">
         <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="11">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9">
         <v>0.1</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="11">
+        <v>44</v>
+      </c>
+      <c r="B15" s="9">
         <v>0.2</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="11">
+        <v>45</v>
+      </c>
+      <c r="B16" s="9">
         <v>0.2</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="12">
+        <v>46</v>
+      </c>
+      <c r="B17" s="10">
         <v>6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="1">
         <v>0.1</v>
       </c>
       <c r="G17" s="2"/>
@@ -1012,12 +1026,12 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="12">
+        <v>82</v>
+      </c>
+      <c r="B18" s="10">
         <v>6</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="1">
         <v>0.1</v>
       </c>
       <c r="G18" s="2"/>
@@ -1025,12 +1039,12 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="12">
+        <v>47</v>
+      </c>
+      <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="1">
         <v>0.1</v>
       </c>
       <c r="G19" s="2"/>
@@ -1038,12 +1052,12 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="12">
+        <v>48</v>
+      </c>
+      <c r="B20" s="10">
         <v>6</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="1">
         <v>0.1</v>
       </c>
       <c r="G20" s="2"/>
@@ -1051,12 +1065,12 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="12">
+        <v>83</v>
+      </c>
+      <c r="B21" s="10">
         <v>6</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="1">
         <v>0.1</v>
       </c>
       <c r="G21" s="2"/>
@@ -1064,110 +1078,110 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="12">
+        <v>49</v>
+      </c>
+      <c r="B22" s="10">
         <v>1</v>
       </c>
-      <c r="C22" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="C22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="12"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="12">
+        <v>50</v>
+      </c>
+      <c r="B23" s="10">
         <v>2</v>
       </c>
-      <c r="C23" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="C23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="12"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="12">
+        <v>84</v>
+      </c>
+      <c r="B24" s="10">
         <v>2</v>
       </c>
-      <c r="C24" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="14"/>
+      <c r="C24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="12"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="12">
+        <v>51</v>
+      </c>
+      <c r="B25" s="10">
         <v>1</v>
       </c>
-      <c r="C25" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="C25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="12"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="12">
+        <v>54</v>
+      </c>
+      <c r="B26" s="10">
         <v>1.5</v>
       </c>
-      <c r="C26" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="C26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="12"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="12">
+        <v>85</v>
+      </c>
+      <c r="B27" s="10">
         <v>1.5</v>
       </c>
-      <c r="C27" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="14"/>
+      <c r="C27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="12"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="12">
+        <v>55</v>
+      </c>
+      <c r="B28" s="10">
         <v>1</v>
       </c>
-      <c r="C28" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="C28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="12"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="12">
+        <v>52</v>
+      </c>
+      <c r="B29" s="10">
         <v>1</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="1">
         <v>0.1</v>
       </c>
       <c r="G29" s="2"/>
@@ -1175,12 +1189,12 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="12">
+        <v>86</v>
+      </c>
+      <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="1">
         <v>0.1</v>
       </c>
       <c r="G30" s="2"/>
@@ -1188,12 +1202,12 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="12">
+        <v>53</v>
+      </c>
+      <c r="B31" s="10">
         <v>1</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="1">
         <v>0.1</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1205,15 +1219,15 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="11">
+        <v>56</v>
+      </c>
+      <c r="B32" s="9">
         <v>2.1</v>
       </c>
       <c r="C32" s="1">
         <v>0.1</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="5">
         <v>0.54</v>
       </c>
@@ -1223,15 +1237,15 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="12">
+        <v>57</v>
+      </c>
+      <c r="B33" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="C33" s="1">
         <v>0.1</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="7">
         <v>0.45</v>
       </c>
@@ -1243,13 +1257,13 @@
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>0.7</v>
       </c>
       <c r="C34" s="1">
         <v>0.1</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <f>SUM(B34:B38)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -1258,7 +1272,7 @@
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>0</v>
       </c>
       <c r="C35" s="1">
@@ -1269,7 +1283,7 @@
       <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="9">
         <v>0.1</v>
       </c>
       <c r="C36" s="1">
@@ -1280,7 +1294,7 @@
       <c r="A37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="9">
         <v>0.1</v>
       </c>
       <c r="C37" s="1">
@@ -1291,7 +1305,7 @@
       <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="9">
         <v>0.1</v>
       </c>
       <c r="C38" s="1">
@@ -1302,13 +1316,13 @@
       <c r="A39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>0.4</v>
       </c>
       <c r="C39" s="1">
         <v>0.1</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <f>SUM(B39:B43)</f>
         <v>1</v>
       </c>
@@ -1317,7 +1331,7 @@
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>0.15</v>
       </c>
       <c r="C40" s="1">
@@ -1328,7 +1342,7 @@
       <c r="A41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>0.15</v>
       </c>
       <c r="C41" s="1">
@@ -1339,7 +1353,7 @@
       <c r="A42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>0.15</v>
       </c>
       <c r="C42" s="1">
@@ -1350,7 +1364,7 @@
       <c r="A43" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>0.15</v>
       </c>
       <c r="C43" s="1">
@@ -1361,13 +1375,13 @@
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>0.2</v>
       </c>
       <c r="C44" s="1">
         <v>0.1</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="13">
         <f>SUM(B49:B53)</f>
         <v>1</v>
       </c>
@@ -1376,7 +1390,7 @@
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <v>0.7</v>
       </c>
       <c r="C45" s="1">
@@ -1387,7 +1401,7 @@
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>0</v>
       </c>
       <c r="C46" s="1">
@@ -1398,7 +1412,7 @@
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <v>0.1</v>
       </c>
       <c r="C47" s="1">
@@ -1409,87 +1423,83 @@
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>0.5</v>
       </c>
       <c r="C49" s="1">
         <v>0.1</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="13">
         <f>SUM(B49:B53)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="10">
         <v>0</v>
       </c>
       <c r="C50" s="1">
         <v>0.1</v>
       </c>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="10">
         <v>0.05</v>
       </c>
       <c r="C51" s="1">
         <v>0.1</v>
       </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="10">
         <v>0.4</v>
       </c>
       <c r="C52" s="1">
         <v>0.1</v>
       </c>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="10">
         <v>0.05</v>
       </c>
       <c r="C53" s="1">
         <v>0.1</v>
       </c>
-      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="9">
         <v>0</v>
       </c>
       <c r="C54" s="1">
         <v>0.1</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="13">
         <f>SUM(B54:B58)</f>
         <v>0.99900000000000011</v>
       </c>
@@ -1498,7 +1508,7 @@
       <c r="A55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="9">
         <v>0</v>
       </c>
       <c r="C55" s="1">
@@ -1509,7 +1519,7 @@
       <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="9">
         <v>0.33300000000000002</v>
       </c>
       <c r="C56" s="1">
@@ -1520,7 +1530,7 @@
       <c r="A57" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="9">
         <v>0.33300000000000002</v>
       </c>
       <c r="C57" s="1">
@@ -1531,7 +1541,7 @@
       <c r="A58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="9">
         <v>0.33300000000000002</v>
       </c>
       <c r="C58" s="1">
@@ -1542,13 +1552,13 @@
       <c r="A59" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="10">
         <v>0.5</v>
       </c>
       <c r="C59" s="1">
         <v>0.1</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="13">
         <f>SUM(B59:B63)</f>
         <v>1</v>
       </c>
@@ -1557,7 +1567,7 @@
       <c r="A60" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="10">
         <v>0</v>
       </c>
       <c r="C60" s="1">
@@ -1568,7 +1578,7 @@
       <c r="A61" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="10">
         <v>0.05</v>
       </c>
       <c r="C61" s="1">
@@ -1579,7 +1589,7 @@
       <c r="A62" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="10">
         <v>0.4</v>
       </c>
       <c r="C62" s="1">
@@ -1590,7 +1600,7 @@
       <c r="A63" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>0.05</v>
       </c>
       <c r="C63" s="1">
@@ -1599,24 +1609,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="11">
+        <v>58</v>
+      </c>
+      <c r="B64" s="9">
         <v>0.1</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="15">
         <f>SUM(B64:B67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="11">
+        <v>60</v>
+      </c>
+      <c r="B65" s="9">
         <v>0.3</v>
       </c>
       <c r="C65" s="1">
@@ -1625,9 +1635,9 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="11">
+        <v>61</v>
+      </c>
+      <c r="B66" s="9">
         <v>0.1</v>
       </c>
       <c r="C66" s="1">
@@ -1636,9 +1646,9 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="11">
+        <v>59</v>
+      </c>
+      <c r="B67" s="9">
         <v>0.5</v>
       </c>
       <c r="C67" s="1">
@@ -1647,165 +1657,165 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="12">
+        <v>62</v>
+      </c>
+      <c r="B68" s="10">
         <v>0.2</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="15">
         <f>SUM(B68:B70)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="12">
+        <v>63</v>
+      </c>
+      <c r="B69" s="10">
         <v>0.4</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
-      <c r="D69" s="18"/>
+      <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="12">
+        <v>64</v>
+      </c>
+      <c r="B70" s="10">
         <v>0.4</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
-      <c r="D70" s="18"/>
+      <c r="D70" s="16"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="11">
+        <v>65</v>
+      </c>
+      <c r="B71" s="9">
         <v>0.2</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="15">
         <f>SUM(B71:B73)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="11">
+        <v>66</v>
+      </c>
+      <c r="B72" s="9">
         <v>0.4</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
-      <c r="D72" s="18"/>
+      <c r="D72" s="16"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="11">
+        <v>67</v>
+      </c>
+      <c r="B73" s="9">
         <v>0.4</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
-      <c r="D73" s="18"/>
+      <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="12">
+        <v>68</v>
+      </c>
+      <c r="B74" s="10">
         <v>0.2</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="15">
         <f>SUM(B74:B76)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="12">
+        <v>69</v>
+      </c>
+      <c r="B75" s="10">
         <v>0.4</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
-      <c r="D75" s="18"/>
+      <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="12">
+        <v>70</v>
+      </c>
+      <c r="B76" s="10">
         <v>0.4</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
-      <c r="D76" s="18"/>
+      <c r="D76" s="16"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="11">
+        <v>71</v>
+      </c>
+      <c r="B77" s="9">
         <v>0.2</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="15">
         <f>SUM(B77:B79)</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="11">
+        <v>72</v>
+      </c>
+      <c r="B78" s="9">
         <v>0.4</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
-      <c r="D78" s="18"/>
+      <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="11">
+        <v>73</v>
+      </c>
+      <c r="B79" s="9">
         <v>0.2</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
-      <c r="D79" s="18"/>
+      <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D80" s="18"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D81" s="18"/>
+      <c r="D81" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_Substitution.xlsx
+++ b/cbrunner/Parameters/Parameters_Substitution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82215F-2A3E-4AC1-8B7E-D4160EFB8911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57491F4F-327E-4D32-B434-438A3CD23965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="960" windowWidth="15144" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -47,21 +47,6 @@
     <t>Sigma</t>
   </si>
   <si>
-    <t>PelletFracDisplacingCoal</t>
-  </si>
-  <si>
-    <t>PelletFracDisplacingRenewables</t>
-  </si>
-  <si>
-    <t>PelletFracDisplacingDiesel</t>
-  </si>
-  <si>
-    <t>PelletFracDisplacingNaturalGas</t>
-  </si>
-  <si>
-    <t>PelletFracDisplacingOil</t>
-  </si>
-  <si>
     <t>FirewoodDomFracDisplacingRenewables</t>
   </si>
   <si>
@@ -77,21 +62,6 @@
     <t>FirewoodDomFracDisplacingOil</t>
   </si>
   <si>
-    <t>FirewoodForFracDisplacingRenewables</t>
-  </si>
-  <si>
-    <t>FirewoodForFracDisplacingCoal</t>
-  </si>
-  <si>
-    <t>FirewoodForFracDisplacingDiesel</t>
-  </si>
-  <si>
-    <t>FirewoodForFracDisplacingNaturalGas</t>
-  </si>
-  <si>
-    <t>FirewoodForFracDisplacingOil</t>
-  </si>
-  <si>
     <t>PowerFacilityDomFracDisplacingRenewables</t>
   </si>
   <si>
@@ -107,21 +77,6 @@
     <t>PowerFacilityDomFracDisplacingOil</t>
   </si>
   <si>
-    <t>PowerFacilityForFracDisplacingRenewables</t>
-  </si>
-  <si>
-    <t>PowerFacilityForFracDisplacingCoal</t>
-  </si>
-  <si>
-    <t>PowerFacilityForFracDisplacingDiesel</t>
-  </si>
-  <si>
-    <t>PowerFacilityForFracDisplacingNaturalGas</t>
-  </si>
-  <si>
-    <t>PowerFacilityForFracDisplacingOil</t>
-  </si>
-  <si>
     <t>PowerGridFracDisplacingRenewables</t>
   </si>
   <si>
@@ -294,6 +249,81 @@
   </si>
   <si>
     <t>DisplacementRatio_TextileForPanel</t>
+  </si>
+  <si>
+    <t>PelletDomGridFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>PelletDomGridFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>PelletDomGridFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>PelletDomGridFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>PelletDomRNGFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>PelletDomRNGFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>PelletDomRNGFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>PelletDomRNGFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>PelletDomRNGFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>PelletDomGridFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>PelletExportFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>PelletExportFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>PelletExportFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>PelletExportFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>PelletExportFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>PowerFacilityExportFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>PowerFacilityExportFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>PowerFacilityExportFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>PowerFacilityExportFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>PowerFacilityExportFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>FirewoodExportFracDisplacingRenewables</t>
+  </si>
+  <si>
+    <t>FirewoodExportFracDisplacingCoal</t>
+  </si>
+  <si>
+    <t>FirewoodExportFracDisplacingDiesel</t>
+  </si>
+  <si>
+    <t>FirewoodExportFracDisplacingNaturalGas</t>
+  </si>
+  <si>
+    <t>FirewoodExportFracDisplacingOil</t>
   </si>
 </sst>
 </file>
@@ -374,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -414,6 +444,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -755,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,18 +813,18 @@
         <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B2" s="9">
         <v>0.65</v>
@@ -808,7 +841,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9">
         <v>0.3</v>
@@ -821,7 +854,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9">
         <v>2.5000000000000001E-2</v>
@@ -834,7 +867,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B5" s="9">
         <v>2.5000000000000001E-2</v>
@@ -847,7 +880,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -860,7 +893,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B7" s="10">
         <v>0.65</v>
@@ -877,7 +910,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B8" s="10">
         <v>0.3</v>
@@ -890,7 +923,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B9" s="10">
         <v>2.5000000000000001E-2</v>
@@ -903,7 +936,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B10" s="10">
         <v>2.5000000000000001E-2</v>
@@ -916,7 +949,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -929,7 +962,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B12" s="9">
         <v>0.5</v>
@@ -942,14 +975,14 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -958,14 +991,14 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B14" s="9">
         <v>0.1</v>
@@ -974,14 +1007,14 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9">
         <v>0.2</v>
@@ -990,14 +1023,14 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B16" s="9">
         <v>0.2</v>
@@ -1006,14 +1039,14 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B17" s="10">
         <v>6</v>
@@ -1026,7 +1059,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10">
         <v>6</v>
@@ -1039,7 +1072,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
@@ -1052,7 +1085,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B20" s="10">
         <v>6</v>
@@ -1065,7 +1098,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B21" s="10">
         <v>6</v>
@@ -1078,7 +1111,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
@@ -1092,7 +1125,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B23" s="10">
         <v>2</v>
@@ -1106,7 +1139,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10">
         <v>2</v>
@@ -1120,7 +1153,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10">
         <v>1</v>
@@ -1134,7 +1167,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B26" s="10">
         <v>1.5</v>
@@ -1148,7 +1181,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B27" s="10">
         <v>1.5</v>
@@ -1162,7 +1195,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
@@ -1176,7 +1209,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
@@ -1189,7 +1222,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
@@ -1202,7 +1235,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
@@ -1211,15 +1244,15 @@
         <v>0.1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B32" s="9">
         <v>2.1</v>
@@ -1237,7 +1270,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B33" s="10">
         <v>2.2000000000000002</v>
@@ -1255,7 +1288,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B34" s="9">
         <v>0.7</v>
@@ -1270,7 +1303,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -1281,7 +1314,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B36" s="9">
         <v>0.1</v>
@@ -1292,7 +1325,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B37" s="9">
         <v>0.1</v>
@@ -1303,7 +1336,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B38" s="9">
         <v>0.1</v>
@@ -1314,7 +1347,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B39" s="10">
         <v>0.4</v>
@@ -1329,7 +1362,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B40" s="10">
         <v>0.15</v>
@@ -1340,7 +1373,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B41" s="10">
         <v>0.15</v>
@@ -1351,7 +1384,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B42" s="10">
         <v>0.15</v>
@@ -1362,7 +1395,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B43" s="10">
         <v>0.15</v>
@@ -1373,7 +1406,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B44" s="9">
         <v>0.2</v>
@@ -1382,13 +1415,13 @@
         <v>0.1</v>
       </c>
       <c r="D44" s="13">
-        <f>SUM(B49:B53)</f>
+        <f>SUM(B59:B63)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B45" s="9">
         <v>0.7</v>
@@ -1399,7 +1432,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B46" s="9">
         <v>0</v>
@@ -1410,7 +1443,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B47" s="9">
         <v>0.1</v>
@@ -1421,7 +1454,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B48" s="9">
         <v>0</v>
@@ -1431,59 +1464,59 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>9</v>
+      <c r="A49" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="B49" s="10">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C49" s="1">
         <v>0.1</v>
       </c>
       <c r="D49" s="13">
-        <f>SUM(B49:B53)</f>
-        <v>1</v>
+        <f>SUM(B64:B68)</f>
+        <v>0.99900000000000011</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>10</v>
+      <c r="A50" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="B50" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C50" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>11</v>
+      <c r="A51" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B51" s="10">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C51" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>12</v>
+      <c r="A52" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B52" s="10">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="C52" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>13</v>
+      <c r="A53" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B53" s="10">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C53" s="1">
         <v>0.1</v>
@@ -1491,22 +1524,22 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B54" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C54" s="1">
         <v>0.1</v>
       </c>
       <c r="D54" s="13">
-        <f>SUM(B54:B58)</f>
-        <v>0.99900000000000011</v>
+        <f>SUM(B69:B73)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B55" s="9">
         <v>0</v>
@@ -1517,10 +1550,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B56" s="9">
-        <v>0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1">
         <v>0.1</v>
@@ -1528,10 +1561,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B57" s="9">
-        <v>0.33300000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="C57" s="1">
         <v>0.1</v>
@@ -1539,10 +1572,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B58" s="9">
-        <v>0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
         <v>0.1</v>
@@ -1550,7 +1583,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B59" s="10">
         <v>0.5</v>
@@ -1565,7 +1598,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B60" s="10">
         <v>0</v>
@@ -1576,7 +1609,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B61" s="10">
         <v>0.05</v>
@@ -1587,7 +1620,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B62" s="10">
         <v>0.4</v>
@@ -1598,7 +1631,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>0.05</v>
@@ -1609,213 +1642,331 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B64" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="15">
-        <f>SUM(B64:B67)</f>
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="D64" s="13">
+        <f>SUM(B64:B68)</f>
+        <v>0.99900000000000011</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B65" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B66" s="9">
-        <v>0.1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B67" s="9">
-        <v>0.5</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="10">
-        <v>0.2</v>
+      <c r="A68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="9">
+        <v>0.33300000000000002</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="15">
-        <f>SUM(B68:B70)</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B69" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="D69" s="13">
+        <f>SUM(B69:B73)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B70" s="10">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="10">
         <v>0.4</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="16"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="15">
-        <f>SUM(B71:B73)</f>
+      <c r="C72" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="15">
+        <f>SUM(B74:B77)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-      <c r="D72" s="16"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="16"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-      <c r="D74" s="15">
-        <f>SUM(B74:B76)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="10">
-        <v>0.4</v>
+      <c r="A75" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="9">
+        <v>0.3</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
-      <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="10">
-        <v>0.4</v>
+      <c r="A76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="9">
+        <v>0.1</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
-      <c r="D76" s="16"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B77" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="10">
         <v>0.2</v>
       </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-      <c r="D77" s="15">
-        <f>SUM(B77:B79)</f>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="15">
+        <f>SUM(B78:B80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="16"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="16"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="15">
+        <f>SUM(B81:B83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="16"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="16"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="15">
+        <f>SUM(B84:B86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="16"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="15">
+        <f>SUM(B87:B89)</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="9">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="9">
         <v>0.4</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="16"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" s="9">
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="9">
         <v>0.2</v>
       </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="16"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D80" s="16"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D81" s="16"/>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="16"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_Substitution.xlsx
+++ b/cbrunner/Parameters/Parameters_Substitution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57491F4F-327E-4D32-B434-438A3CD23965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D6B52-E31B-41D7-AD7E-D397C1DD3413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="960" windowWidth="15144" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>FirewoodExportFracDisplacingOil</t>
+  </si>
+  <si>
+    <t>Best Estimate</t>
   </si>
 </sst>
 </file>
@@ -468,9 +468,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -508,9 +508,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,26 +543,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,26 +578,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,24 +773,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="9">
         <v>0.65</v>
@@ -841,7 +807,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="9">
         <v>0.3</v>
@@ -854,7 +820,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9">
         <v>2.5000000000000001E-2</v>
@@ -867,7 +833,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9">
         <v>2.5000000000000001E-2</v>
@@ -880,7 +846,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -893,7 +859,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="10">
         <v>0.65</v>
@@ -910,7 +876,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="10">
         <v>0.3</v>
@@ -923,7 +889,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="10">
         <v>2.5000000000000001E-2</v>
@@ -936,7 +902,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="10">
         <v>2.5000000000000001E-2</v>
@@ -949,7 +915,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -962,7 +928,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="9">
         <v>0.5</v>
@@ -975,14 +941,14 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -991,14 +957,14 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9">
         <v>0.1</v>
@@ -1007,14 +973,14 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="9">
         <v>0.2</v>
@@ -1023,14 +989,14 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9">
         <v>0.2</v>
@@ -1039,14 +1005,14 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="10">
         <v>6</v>
@@ -1059,7 +1025,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="10">
         <v>6</v>
@@ -1072,7 +1038,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
@@ -1085,7 +1051,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="10">
         <v>6</v>
@@ -1098,7 +1064,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="10">
         <v>6</v>
@@ -1111,7 +1077,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
@@ -1125,7 +1091,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="10">
         <v>2</v>
@@ -1139,7 +1105,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="10">
         <v>2</v>
@@ -1153,7 +1119,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="10">
         <v>1</v>
@@ -1167,7 +1133,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="10">
         <v>1.5</v>
@@ -1181,7 +1147,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="10">
         <v>1.5</v>
@@ -1195,7 +1161,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
@@ -1209,7 +1175,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
@@ -1222,7 +1188,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
@@ -1235,7 +1201,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
@@ -1244,15 +1210,15 @@
         <v>0.1</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="9">
         <v>2.1</v>
@@ -1270,7 +1236,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="10">
         <v>2.2000000000000002</v>
@@ -1288,7 +1254,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="9">
         <v>0.7</v>
@@ -1303,7 +1269,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -1314,7 +1280,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="9">
         <v>0.1</v>
@@ -1325,7 +1291,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="9">
         <v>0.1</v>
@@ -1336,7 +1302,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="9">
         <v>0.1</v>
@@ -1347,7 +1313,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="10">
         <v>0.4</v>
@@ -1362,7 +1328,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="10">
         <v>0.15</v>
@@ -1373,7 +1339,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="10">
         <v>0.15</v>
@@ -1384,7 +1350,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="10">
         <v>0.15</v>
@@ -1395,7 +1361,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="10">
         <v>0.15</v>
@@ -1406,7 +1372,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="9">
         <v>0.2</v>
@@ -1421,7 +1387,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="9">
         <v>0.7</v>
@@ -1432,7 +1398,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="9">
         <v>0</v>
@@ -1443,7 +1409,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="9">
         <v>0.1</v>
@@ -1454,7 +1420,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="9">
         <v>0</v>
@@ -1465,7 +1431,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="10">
         <v>0.9</v>
@@ -1480,7 +1446,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="10">
         <v>0.02</v>
@@ -1491,7 +1457,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" s="10">
         <v>0.02</v>
@@ -1502,7 +1468,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="10">
         <v>0.04</v>
@@ -1513,7 +1479,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="10">
         <v>0.02</v>
@@ -1524,7 +1490,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="9">
         <v>0.25</v>
@@ -1539,7 +1505,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="9">
         <v>0</v>
@@ -1550,7 +1516,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" s="9">
         <v>0</v>
@@ -1561,7 +1527,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" s="9">
         <v>0.75</v>
@@ -1572,7 +1538,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="9">
         <v>0</v>
@@ -1583,7 +1549,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10">
         <v>0.5</v>
@@ -1598,7 +1564,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="10">
         <v>0</v>
@@ -1609,7 +1575,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" s="10">
         <v>0.05</v>
@@ -1620,7 +1586,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" s="10">
         <v>0.4</v>
@@ -1631,7 +1597,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="10">
         <v>0.05</v>
@@ -1642,7 +1608,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="9">
         <v>0</v>
@@ -1657,7 +1623,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" s="9">
         <v>0</v>
@@ -1668,7 +1634,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="9">
         <v>0.33300000000000002</v>
@@ -1679,7 +1645,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="9">
         <v>0.33300000000000002</v>
@@ -1690,7 +1656,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" s="9">
         <v>0.33300000000000002</v>
@@ -1701,7 +1667,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" s="10">
         <v>0.5</v>
@@ -1716,7 +1682,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" s="10">
         <v>0</v>
@@ -1727,7 +1693,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71" s="10">
         <v>0.05</v>
@@ -1738,7 +1704,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72" s="10">
         <v>0.4</v>
@@ -1749,7 +1715,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" s="10">
         <v>0.05</v>
@@ -1760,7 +1726,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B74" s="9">
         <v>0.1</v>
@@ -1775,7 +1741,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" s="9">
         <v>0.3</v>
@@ -1786,7 +1752,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" s="9">
         <v>0.1</v>
@@ -1797,7 +1763,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="9">
         <v>0.5</v>
@@ -1808,7 +1774,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B78" s="10">
         <v>0.2</v>
@@ -1823,7 +1789,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" s="10">
         <v>0.4</v>
@@ -1835,7 +1801,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B80" s="10">
         <v>0.4</v>
@@ -1847,7 +1813,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" s="9">
         <v>0.2</v>
@@ -1862,7 +1828,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B82" s="9">
         <v>0.4</v>
@@ -1874,7 +1840,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B83" s="9">
         <v>0.4</v>
@@ -1886,7 +1852,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B84" s="10">
         <v>0.2</v>
@@ -1901,7 +1867,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" s="10">
         <v>0.4</v>
@@ -1913,7 +1879,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86" s="10">
         <v>0.4</v>
@@ -1925,7 +1891,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B87" s="9">
         <v>0.2</v>
@@ -1940,7 +1906,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B88" s="9">
         <v>0.4</v>
@@ -1952,7 +1918,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B89" s="9">
         <v>0.2</v>

--- a/cbrunner/Parameters/Parameters_Substitution.xlsx
+++ b/cbrunner/Parameters/Parameters_Substitution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D6B52-E31B-41D7-AD7E-D397C1DD3413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E50BAC1-EFE2-424E-A4AC-A2453D5B7C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Best Estimate</t>
+  </si>
+  <si>
+    <t>Economic Contraction Fraction</t>
   </si>
 </sst>
 </file>
@@ -756,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1929,6 +1932,12 @@
       <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="11">
+        <v>0.5</v>
+      </c>
       <c r="D90" s="16"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">

--- a/cbrunner/Parameters/Parameters_Substitution.xlsx
+++ b/cbrunner/Parameters/Parameters_Substitution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E50BAC1-EFE2-424E-A4AC-A2453D5B7C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65206096-195B-4E6C-B0A5-00A19C215293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +393,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -407,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -450,6 +456,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -759,19 +771,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="11"/>
-    <col min="4" max="4" width="6.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="11"/>
+    <col min="4" max="4" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -808,7 +820,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -821,7 +833,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -834,7 +846,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -847,7 +859,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -860,7 +872,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
@@ -877,7 +889,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
@@ -890,7 +902,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>63</v>
       </c>
@@ -903,7 +915,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
@@ -916,7 +928,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
@@ -929,7 +941,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -949,7 +961,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -965,7 +977,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -981,7 +993,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -997,7 +1009,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1025,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -1026,7 +1038,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
@@ -1039,7 +1051,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
@@ -1052,7 +1064,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
@@ -1065,7 +1077,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
@@ -1078,7 +1090,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -1092,7 +1104,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1106,7 +1118,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>68</v>
       </c>
@@ -1120,7 +1132,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1134,7 +1146,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
@@ -1148,7 +1160,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>69</v>
       </c>
@@ -1162,7 +1174,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1176,7 +1188,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1189,7 +1201,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>70</v>
       </c>
@@ -1202,7 +1214,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
@@ -1237,7 +1249,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +1293,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1315,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -1314,7 +1326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>86</v>
       </c>
@@ -1329,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>87</v>
       </c>
@@ -1340,7 +1352,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>88</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>89</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>90</v>
       </c>
@@ -1373,7 +1385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>81</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>82</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>84</v>
       </c>
@@ -1421,7 +1433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>71</v>
       </c>
@@ -1447,7 +1459,7 @@
         <v>0.99900000000000011</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>80</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>72</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>73</v>
       </c>
@@ -1480,7 +1492,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>74</v>
       </c>
@@ -1491,7 +1503,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>75</v>
       </c>
@@ -1506,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>76</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>77</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>78</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>79</v>
       </c>
@@ -1550,7 +1562,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>3</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>4</v>
       </c>
@@ -1576,7 +1588,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1599,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>6</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>7</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>91</v>
       </c>
@@ -1624,7 +1636,7 @@
         <v>0.99900000000000011</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>92</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>93</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>94</v>
       </c>
@@ -1657,7 +1669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>95</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -1683,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>16</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +1739,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>42</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>44</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>45</v>
       </c>
@@ -1764,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>43</v>
       </c>
@@ -1775,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>46</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>47</v>
       </c>
@@ -1802,7 +1814,7 @@
       </c>
       <c r="D79" s="16"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>48</v>
       </c>
@@ -1814,7 +1826,7 @@
       </c>
       <c r="D80" s="16"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>49</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>50</v>
       </c>
@@ -1841,7 +1853,7 @@
       </c>
       <c r="D82" s="16"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>51</v>
       </c>
@@ -1853,7 +1865,7 @@
       </c>
       <c r="D83" s="16"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>52</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>53</v>
       </c>
@@ -1880,7 +1892,7 @@
       </c>
       <c r="D85" s="16"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -1892,7 +1904,7 @@
       </c>
       <c r="D86" s="16"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>55</v>
       </c>
@@ -1907,7 +1919,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>56</v>
       </c>
@@ -1919,7 +1931,7 @@
       </c>
       <c r="D88" s="16"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>57</v>
       </c>
@@ -1931,16 +1943,19 @@
       </c>
       <c r="D89" s="16"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="19">
         <v>0.5</v>
       </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
       <c r="D90" s="16"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D91" s="16"/>
     </row>
   </sheetData>
@@ -1957,99 +1972,99 @@
       <selection activeCell="A28" sqref="A1:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
   </sheetData>
@@ -2064,7 +2079,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cbrunner/Parameters/Parameters_Substitution.xlsx
+++ b/cbrunner/Parameters/Parameters_Substitution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65206096-195B-4E6C-B0A5-00A19C215293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DFB827-959C-4714-A5CC-2EF6A54B2786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Economic Contraction Fraction</t>
+  </si>
+  <si>
+    <t>Fraction_Energy_Subs_Counted_In_StationaryCombustion</t>
   </si>
 </sst>
 </file>
@@ -771,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,6 +1959,12 @@
       <c r="D90" s="16"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="11">
+        <v>0.95</v>
+      </c>
       <c r="D91" s="16"/>
     </row>
   </sheetData>
